--- a/files/books.xlsx
+++ b/files/books.xlsx
@@ -20,141 +20,132 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t xml:space="preserve">Book Names</t>
   </si>
   <si>
-    <t xml:space="preserve">Fed-Batch Fermentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyber Reconnaissance, Surveillance and Defense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimized Cloud Resource Management and Scheduling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landslide Hazards, Risks, and Disasters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wildfire Hazards, Risks, and Disasters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy Storage for Smart Grids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Guide to Oilwell Fishing Operations (Second Edition)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unconventional Gas Reservoirs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palladium Membrane Technology for Hydrogen Production, Carbon Capture and Other Applications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gas Turbines (Second Edition)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulatory Affairs for Biomaterials and Medical Devices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Functional Finishes for Textiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learning from the Impacts of Superstorm Sandy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hedge Fund Governance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intelligent Coatings for Corrosion Control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fatigue and Fracture of Adhesively-Bonded Composite Joints</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modelling Degradation of Bioresorbable Polymeric Medical Devices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An Introduction to Probability and Statistical Inference (Second Edition)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Designing Plastic Parts for Assembly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shaping Knowledge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polyphenols in Plants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key Chiral Auxiliary Applications (Second Edition)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relevance Ranking for Vertical Search Engines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commercial Data Mining</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Object-Oriented Analysis and Design for Information Systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Design Modeling using CAD/CAE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elasticity (Third Edition)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drinking Water Security for Engineers, Planners, and Managers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuclear Energy (Seventh Edition)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piping and Pipeline Calculations Manual (Second Edition)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomarkers in Toxicology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drug Stability for Pharmaceutical Scientists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polymer Testing (Second Edition)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlas of Chick Development (Third Edition)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stem Cells (Second Edition)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rare Diseases and Orphan Drugs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heterogeneous Catalytic Materials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Braking of Road Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friction Stir Superplasticity for Unitized Structures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High Performance Silicon Imaging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advanced Composites in Bridge Construction and Repair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensor Technologies for Civil Infrastructures, Volume 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miscarriages of Justice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Security Leader Insights for Effective Management</t>
+    <t xml:space="preserve">Santa Paws, Our Hero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Puppy Place, Noodle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kidnapped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Young Americans Colonial Williamsburg Anns Story</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic Tricks from the Tree House</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some Good News</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Puppet Club</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dogs in the Dead of Night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Survived The Bombing of Pearl Harbor, 1941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emilys Runaway Imagination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Of A Kind Family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hopscotch Love</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brave Emily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stink  and the Ultimate Thumb Wrestling Smackdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horrible Harry At Halloween</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Puppy Place, Sweetie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Land of Stories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out of My Mind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insectlopedia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What Do You Call A Rhyming Riddle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animals Animals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haggis and Tank Unleashed: All Paws On Deck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im Glad Iim Me. Poems about You</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pippi Longstocking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Little Go Exploring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sounder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blackbird Fly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mary Margaret Mary Christmas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Tale of Despereaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superfudge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramona And Her Father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Girls Take Over</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anastasia At This Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double Fudge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junie B. Jones Has a Peep In Her Pocket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Enchanted Castle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operation Clean Sweep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Whimpy Kid Do It Yourself Book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cicada Summer</t>
   </si>
 </sst>
 </file>
@@ -262,25 +253,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A45"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.9642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.6173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -288,21 +285,33 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -482,21 +491,6 @@
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/files/books.xlsx
+++ b/files/books.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -160,7 +160,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -253,97 +252,79 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.6173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.4591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -358,17 +339,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -378,7 +359,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -393,7 +374,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -403,22 +384,22 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -433,12 +414,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -448,17 +429,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -468,22 +449,22 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>

--- a/files/books.xlsx
+++ b/files/books.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
   <si>
     <t xml:space="preserve">Book Names</t>
   </si>
@@ -146,6 +146,195 @@
   </si>
   <si>
     <t xml:space="preserve">Cicada Summer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twenty and Ten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American Quilts Ida Lous Story</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I survived the Battle Of Ghettysburg, 1863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huckleberry Fin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grandmas General Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walk Across The Sea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Magic School Bus, Inside The Human Body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gordon Korman. Why Did the Underwear Cross The Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calender Mysteries March Mischief</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Mystery Of the Coon Cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Mysterious Benedict Society and The Prisoners Dilemma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calender Mysteries January Joker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Mystery of the Magis Treasure </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Girl Meets World, Friend Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The OodleThunks, Oona Finds an Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Puppy Place, Lucky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alices Adventures in Wonderland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clementines Letter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpiderMan Attack of the Heroes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graphix goes to school </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Puppy Place, Bear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Series Of Unfortunate Events, The Slippery Slope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Broad Street to Beacon Hill. Rocket Girl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Upstairs Connection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ready Freddy Tooth Troubles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna on the Farm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junie B, First Grader At last</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meet Molly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Young Cam Jansen and the Baseball Mystery </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meet Addy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happy Birthday, Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The First Thanksgiving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drop Everything, its D.E.A.R Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Indian In The Cupboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 Birthdays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judy Moody The Doctor Is In</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judy Moody Declares Independence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dog Man Unleashed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presenting, Talulah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ive Got A Secret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junie B. First Grader. Boss Of Lunch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Letting Swift River Go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Louisiana Sky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encyclopedia Brown. Everyones Favorite Boy Detective</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heidi Heckelbeck Has A Secret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Summer of the Swans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beverly Cleary Henry and Beezus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Babysitters Club</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mountian Born</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behind The Mountains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom Sayer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On the Banks of Plum Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Story of Harriett Tubman. Freedom Train</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All The Way Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Hero Two Doors Down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looniverse. Stage Freight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riding Freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Little Princess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Race The Wild. Rain Forest Relay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eyes On Nature Spiders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinosaur Bites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghosts</t>
   </si>
 </sst>
 </file>
@@ -155,11 +344,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -175,6 +365,87 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
@@ -183,16 +454,64 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -200,8 +519,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -225,25 +559,153 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -252,16 +714,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:A106"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:A42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A75" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A76" activeCellId="0" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.4591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -474,10 +936,330 @@
         <v>41</v>
       </c>
     </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/files/books.xlsx
+++ b/files/books.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="138">
   <si>
     <t xml:space="preserve">Book Names</t>
   </si>
@@ -335,6 +335,105 @@
   </si>
   <si>
     <t xml:space="preserve">Ghosts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">----------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extreme Sports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Bear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earth Science and Weather</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crocodile Encounters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grimmtastic Girls Sleeping Beauty Dreams Big</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Bear Called Paddington</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giant Dinosaurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calendar Mysteries February Friend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Yellow House Mystery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Den A Tree A Nest Is Best</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Underground Railroad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nancy Drew The Secret Lost At Sea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Gift Of Heritage Historic Blacks in the Arts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Gift Of Heritage Historic Black Firsts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Wind in the Willows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philip Hall Likes Me I Reckon Maybe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aliens Dont Carve Jack O Lanterns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Giraffe and the Pelly and Me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Election Day Disaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pete the Cat And His Four Groovy Buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Land of Many Colors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploring Planets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focus on Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chito Rodriguez-Gomez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZooBooks Wolves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thirteen Moons On Turtles Back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cordelia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shapes in the Sky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Rainbow All Around Me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploring Weather</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If You Were A Minute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flakes and Fluries</t>
   </si>
 </sst>
 </file>
@@ -714,10 +813,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A106"/>
+  <dimension ref="A1:A140"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A75" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A76" activeCellId="0" sqref="A76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A107" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A107" activeCellId="0" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1256,6 +1355,176 @@
         <v>104</v>
       </c>
     </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/files/books.xlsx
+++ b/files/books.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="354">
   <si>
     <t xml:space="preserve">Book Names</t>
   </si>
@@ -337,9 +337,6 @@
     <t xml:space="preserve">Ghosts</t>
   </si>
   <si>
-    <t xml:space="preserve">----------</t>
-  </si>
-  <si>
     <t xml:space="preserve">Extreme Sports</t>
   </si>
   <si>
@@ -434,6 +431,657 @@
   </si>
   <si>
     <t xml:space="preserve">Flakes and Fluries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smells Like Dog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quarterback Superstars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3D dolphins and Whales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tales of the Wicked Witch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rip Van Winkle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is Our Earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StarGazers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stella Night and The Sprites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dolphin School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stella and the Night Sprites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- pile 1 - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I survived the hindenburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Squashed in the middle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The phantom Freighter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judy Moody Saves The World</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judy Moody Girl Detective</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diary Of A Wimpy Kid Hard Luck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dork Diaries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judy Moody Predicts The Future</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frog and Toad Together</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ellen Fremedon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Puppy Place Patches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saige Paints The Sky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Letter To Mrs. Roosevelt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rocks and Minerals </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hatchet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dog Man </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Amazing Panda Adventure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frogs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fly Guy Presents Bats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lon Po Po</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liang and the Magic Paintbrush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flossie and the Fox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bad News For Outlaws</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warning Do Not Open This Book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uncommon Traveler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacob Lawrence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If You Traveled On The Underground Railroad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yao Ming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First In The Field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gusts and Gales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historic Black Women</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- pile 3 -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A salute to black scientists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historic Blacks In The Arts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blacks In The Federal Government</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historic Black Pioneers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Salute to Historic Black Firsts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historic Black Firsts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Into the Rain Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Franny K Stein Mad Scientist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pick Of The Litter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because Of Winn-Dixie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heartland, Holding Fast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patricia MacLachlan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who are Venus and Serena Williams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black Beauty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judy Moody, Around The World in 8.5 Days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ape Escape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sisters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dolphin Tale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Night Of The Ninjas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judy Moody Goes To College</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Halloween Party from the Black Lagoon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flying Aces Of World War I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quiet Youre invisible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricky Ricottas Mighty Robot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitty Corner Otis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Real Lucky Charm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Women</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 10 Most Wondrous Ancient Sites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ponce De Leon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amphibian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The True Story of The Three Little Pigs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- pile 4 - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolves Of The Beyond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second Grade Star</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who Is Malala Yousafzai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sideways Arithmetic From Wayside School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Footwork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jack Sparrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Jungle Book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A schoolLike Mine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The story of The Cherokee People</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treasure Island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turtles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percy Jackson The Battle Of The Labyrinth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percy Jackson The Last Olympian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percy Jackson The Sea Of Monsters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Granite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- pile 5 -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Wrinkle In Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stink And the Ultimate Thumb Wrestling Smackdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stink And the Incredible Super Galactic Jawbreaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Secret Panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Call Of The Wild</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Ghost In The Big Brass Bed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horses Of The Dawn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beekmans Big Deal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Wind In The Willows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Konigsburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grimmtastic Girls Goldilocks Breaks In</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pirates Past Noon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Night Flyers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Magic School Bus, Voyage to the volcano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judy Blume Tales of a Fourth Grade Nothing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Giant Diamond Robbery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sugar Creek Gang The Brown Box Mystery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sophie The Awesome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butterflies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Victorian Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Women In The Struggle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look Inside Space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invention Book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- pile 6 - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiger In Trouble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animal Superstars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brighty And The Grand Canyon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judy Moody Gets Famous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stink and the great Guinea Pig Express</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marvin and the Moths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diary Of A Wimpy Kid Old School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No More Homework No More Tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olives Ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Secret Garden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charlottes Web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percy Jacksons Greek Gods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- pile  7  - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How TO Do Homework Without Throwing Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our Planet Earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maniac Magee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Story Of A Seagull and A Cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Music Of Dolphins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Spy In The White House</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manatee Blues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wild Wild World Sharks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Magis Schoolbus Hops Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All About Mechanical Engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deserts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earth And Water High And Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Amazing Book Of Mammal Records</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploring The Sea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make A Splash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Problems New Solutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Wax To Crayon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carnival Coins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Life Among the Chumash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battle Bugs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stars and The Galaxies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extraordinary Black Americans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count your way through Africa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sir Cumference and the First Round Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You Can Yo Yo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blizzard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon Rainforest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dolphin Baby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- pile 8 -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Ghost Who Haunted The Capital </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sisters 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daisy Dawson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who Broke Lincolns Thumb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Year Down Yonder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benjamin Franklin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elephants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brians Winter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clara Barton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Tiger Rising</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bud Not Buddy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everything On A Waffle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joey Pigza Loses Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travel In The Early Days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desert Voices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our Civic Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valley Forge Triumph Of Spirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oshus and Shelly Save The Bay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plants The Never Ever Bloom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SeaShore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Americas Champion Swimmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Peace Book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What Is Soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Night Sky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Butterfly is Patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Magic School Bus The Giant Germ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butterfly Express</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wild Animals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ladders Going Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Giant Jam Sandwich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- pile 9 -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dino Safari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weather Forecasting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almost Gone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Math For Smarty Pants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Makes Things Happen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monsters Myth Or Fact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If You Were An Astronaut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abe Lincoln goes to Washington</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuart Dwellers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whos House Is This</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Am A Droid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Magic School Bus and the Electrical Field Trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eco Predictions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curious Critters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wheres That Spider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Runner of the Longhouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anakins Race For Freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time Ticks By</t>
   </si>
 </sst>
 </file>
@@ -813,10 +1461,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A140"/>
+  <dimension ref="A1:A375"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A107" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A107" activeCellId="0" sqref="A107"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A340" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A352" activeCellId="0" sqref="A352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1387,12 +2035,12 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1523,6 +2171,1181 @@
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="0" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="0" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="0" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="0" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="0" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="0" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="0" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="0" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="0" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="0" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="0" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="0" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="0" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="0" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="0" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="0" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="0" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="0" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="0" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="0" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="0" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="0" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="0" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="0" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="0" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="0" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="0" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="0" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="0" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="0" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="0" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="0" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="0" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="0" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="0" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="0" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="0" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="0" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="0" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="0" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="0" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="0" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="0" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="0" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="0" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="0" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="0" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="0" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/files/books.xlsx
+++ b/files/books.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="357">
   <si>
     <t xml:space="preserve">Book Names</t>
   </si>
@@ -1082,6 +1082,15 @@
   </si>
   <si>
     <t xml:space="preserve">Time Ticks By</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dork Diaries Tales From a Not So Talented Pop Star</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dork Diaries Tales From a Not So Talented Party Girl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dork Diaries Tales From a Not So Graceful Ice Princess</t>
   </si>
 </sst>
 </file>
@@ -1461,10 +1470,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A375"/>
+  <dimension ref="A1:A378"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A340" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A352" activeCellId="0" sqref="A352"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A364" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A379" activeCellId="0" sqref="A379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3348,6 +3357,21 @@
         <v>353</v>
       </c>
     </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="0" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="0" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="0" t="s">
+        <v>356</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
